--- a/MySensors/- Controllers/Comparison.xlsx
+++ b/MySensors/- Controllers/Comparison.xlsx
@@ -1,35 +1,273 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SmartNetwork\MySensors\- Controllers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Ago control</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Ago control is a framework for device control. The aim is to provide a complete home automation solution. It can also be used in other areas, like agriculture. ago control uses an AMQP Enterprise Message Bus as communication backend, a lightweight protocol, readable by humans and machines, modern and modular architecture, cloud features and more.</t>
+  </si>
+  <si>
+    <t>ago control uses an AMQP Enterprise Message Bus as communication backend
+lightweight protocol, readable by humans and machines
+modern and modular architecture
+it comes with cloud features
+device schema defined in YAML
+great performance – also runs on embedded devices like the Raspberry Pi and multiple plug computes like Sheevaplug and Guruplug
+Easy to extend
+Support for many devices and protocols such as Z-Wave, KNX, EnOcean, 1wire, Asterisk PBX, Dreambox/Enigma2, Onkyo eISCP AVR, X10, Tellstick and many more</t>
+  </si>
+  <si>
+    <t>Freedomotic</t>
+  </si>
+  <si>
+    <t>Freedomotic is an open source, flexible, secure Internet of Things (IoT) application framework, useful to build and manage modern smart spaces. It is targeted to private individuals (home automation) as well as business users (smart retail environments, ambient aware marketing, monitoring and analytics, ...). Freedomotic can interact with well known standard building automation protocols as well as with "do it yourself" solutions. It treats the web, social networks and frontends just like any other sensor or actuator in your automation system.</t>
+  </si>
+  <si>
+    <t>Cross-platform: Freedomotic is written in Java so it can run on Windows, Linux, Mac, Solaris. Java JRE 6 is required (JRE 7+ from v5.6 Commander).
+Distributed &amp; Scalable: can be deployed on a network of cheap peer-to-peer hardware node. It is scalable and can manage from small appartments to huge buildings providing automatic load balancing across clusters on the network.
+Modular &amp; Extensible: Freedomotic is modular and can enrich its features using plugins and crosslanguage API. API are distributed along with the software to easely create new add-ons. It provides OSGi Framework features in a simpler way, leveraging well known OO programming inheritance.
+Cross-language APIs: you can connect different software, hardware, frontends and services app developed in your preferred programming language using REST, STOMP or plain Java.
+Not a single frontend: it can run many frontends at the same time, also from remote. Every frontend can be developed with specific purpose in mind and every company can build rapidly its own branded interface for Android, iPhone, Web...
+Hardware Agnostic: Freedomotic has an hardware abstraction layer to abstract from hardware infrastructure (sensors and actuators) using events, triggers and command. An object (eg: a light) is abstract and not related to any particular building automation protocol.
+Event Based: Every action in the real environment and every interaction with the system (eg: a click on the GUI) is mapped to an event. Events can be intercepted at runtime making the behavior of the system fully configurable and adaptable to any automation purpose.
+Semantic-rich: Freedomotic provides a semantic-rich knowledge of the environment topology, people and objects in it to implement intelligence and reasoning systems. No coding is required, the environment can be described using graphical editors.
+History Aware: it can record environment and objects state changes in a separate and dedicated database. Recording rules can be easily defined with the usual event -&gt; trigger -&gt; commands system. You can record all changes or single domains of interest with the possibility to define the granularity of the recorded data. This historical series can be queried to provide charts, reports, alerts or even to be used to create history aware intelligent automations.
+Multilanguage: freedomotic it'a available in more than 20 languages</t>
+  </si>
+  <si>
+    <t>Developed on</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Install platform</t>
+  </si>
+  <si>
+    <t>C++, Python</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Indigo is a commercial Mac-based home control server that integrates an assortment of popular Z-Wave, INSTEON and X10 hardware devices, as well as a variety of other hardware via 3rd party plugins, to provide monitoring and control of your home.</t>
+  </si>
+  <si>
+    <t>Interfaces: INSTEON, X10, Z-Wave.
+Over 90 plugins
+Custom graphical control pages allow you to design your own user interface
+Triggers and schedules
+Indigo Touch for iOS</t>
+  </si>
+  <si>
+    <t>Indigo Domotics (99…213$)</t>
+  </si>
+  <si>
+    <t>Linux: Debian Wheezy (x86_64, i386, armel, armhf), Raspbian</t>
+  </si>
+  <si>
+    <t>OpenHAB</t>
+  </si>
+  <si>
+    <t>OpenHAB is a software for integrating different home automation systems and technologies into one single solution that allows over-arching automation rules and that offers uniform user interfaces.</t>
+  </si>
+  <si>
+    <t>Absolutely vendor-neutral as well as hardware/protocol-agnostic
+Can run on any device that is capable of running a JVM (Linux, Mac, Windows)
+Lets you integrate an abundance of different home automation technologies into one
+Has a powerful rule engine to fulfill all your automation needs
+Comes with different web-based UIs as well as native UIs for iOS and Android
+Is fully open source
+Is maintained by a passionate and growing community
+Is easily extensible to integrate with new systems and devices
+Provides APIs for being integrated in other systems</t>
+  </si>
+  <si>
+    <t>MQTT</t>
+  </si>
+  <si>
+    <t>- Android
+- iOS
+- WEB
+- GreenT (web)</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>- Mac OS X 10.5 (Leopard) or greater — any Mac capable of running Leopard</t>
+  </si>
+  <si>
+    <t>Indigo Touch for the Web</t>
+  </si>
+  <si>
+    <t>- Windows
+- Mac
+- Linux
+- Linux Debian
+- Raspberry Pi
+- Udoo
+- BeagleBoard
+- SheevaPlug</t>
+  </si>
+  <si>
+    <t>PiDome</t>
+  </si>
+  <si>
+    <t>The PiDome Home Automation/Domotica project tries to create a transparent home automation platform targeting the Raspberry Pi. It provides a flexible API to add support for custom hardware/services in java. A graphical xml editor is build-in to create devices based on supported protocols.</t>
+  </si>
+  <si>
+    <t>Serial, MQTT</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Open source
+MQTT Broker which is capable to integrate MQTT clients in the sever.
+Visual trigger editor using human readable text flows
+Visual floor planner where you can place devices on your own designed floor map image
+JSON RPC API using raw socket, websocket and http via TLS or NON TLS sockets
+Uniform device xml structure independent of device type and brand
+A Java desktop app docked in a taskbar or with full OS like interface
+Android client
+Plugins for: Utility measurements, Universal remote controls, SMS, Media (XBMC)
+Hot plug capabilities for USB devices with automatic drivers loading without the need to restart
+Automatic creation of graphs</t>
+  </si>
+  <si>
+    <t>- Java (Desktop)
+- Android
+The PiDome client is the graphical front end for the PiDome server next to the web interface which runs on the server and has two run modes. The client can be ran as a wall screen, which means it will be optimized for touch, and as a desktop application. The main difference between these two modes besides touch enabled is the room it takes on the screen. The wall mode provides a full desktop like interface with icons and a window manager. The desktop application is a small application which takes a little space on the desktop and can be minimized to the task bar. In the lists the full feature list is shown.</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>The Vera Home Automation Controller is a commercial controller running on its own hardware. It has a rather open plugin architecture and we use it as a testing ground for new controller features. The controller has a history of controlling Z-Wave devices.</t>
+  </si>
+  <si>
+    <t>Serial, Ethernet</t>
+  </si>
+  <si>
+    <t>Manages about 70-200 Z-Wave devices (depending on model)
+Lots of free 3rd party plugins on their plugin market
+Free cloud service with backups and remote access
+Build in web-browser GUI and 3rd party apps supporting remote access</t>
+  </si>
+  <si>
+    <t>- Android
+- iOS</t>
+  </si>
+  <si>
+    <t>Own hardware box</t>
+  </si>
+  <si>
+    <t>- Windows
+- MacOS X
+- Linux
++ with Java 1.7
+- Raspberry Pi
+- BeagleBone Black
+- UDOO
+- Cubietruck</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,21 +282,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -66,39 +369,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +436,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +471,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -177,177 +480,317 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="132.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="21" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="16" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="21" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="21" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MySensors/- Controllers/Comparison.xlsx
+++ b/MySensors/- Controllers/Comparison.xlsx
@@ -250,18 +250,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -328,19 +322,19 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -624,7 +618,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -681,91 +675,91 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="21" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:7" s="21" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="21" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:7" s="16" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="21" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:7" s="16" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="14" t="s">
         <v>32</v>
       </c>
     </row>

--- a/MySensors/- Controllers/Comparison.xlsx
+++ b/MySensors/- Controllers/Comparison.xlsx
@@ -250,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +260,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,19 +328,19 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -618,7 +624,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
